--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7CFFD16-427E-4257-B143-4FA6EFE84088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40258A1-5EBC-4DBE-9634-37B12F2A88C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D624FE61-2369-439A-BC0F-AA133E9F1ECA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2800F588-4128-45A5-811B-D20CCD7E40D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,78 +29,159 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>SUNDAY</t>
-  </si>
-  <si>
-    <t>MONDAY</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>THURSDAY</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>JANUARY</t>
-  </si>
-  <si>
-    <t>FEBRUARY</t>
-  </si>
-  <si>
-    <t>MARCH</t>
-  </si>
-  <si>
-    <t>APRIL</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>JUNE</t>
-  </si>
-  <si>
-    <t>JULY</t>
-  </si>
-  <si>
-    <t>AUGUST</t>
-  </si>
-  <si>
-    <t>SEPTEMBER</t>
-  </si>
-  <si>
-    <t>OCTOBER</t>
-  </si>
-  <si>
-    <t>NOVEMBER</t>
-  </si>
-  <si>
-    <t>DECEMBER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>OUT OF</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>NIKITA</t>
+  </si>
+  <si>
+    <t>TONI</t>
+  </si>
+  <si>
+    <t>AACHAL</t>
+  </si>
+  <si>
+    <t>SAURABH</t>
+  </si>
+  <si>
+    <t>SHUBHAM</t>
+  </si>
+  <si>
+    <t>GAURAV</t>
+  </si>
+  <si>
+    <t>AADITYA</t>
+  </si>
+  <si>
+    <t>TEJAS</t>
+  </si>
+  <si>
+    <t>GANESH</t>
+  </si>
+  <si>
+    <t>MANISHA</t>
+  </si>
+  <si>
+    <t>EXTERNAL</t>
+  </si>
+  <si>
+    <t>INTERNAL</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t>COUNTBLANK</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>MINIMUM</t>
+  </si>
+  <si>
+    <t>MAXIMUM</t>
+  </si>
+  <si>
+    <t>CONCATE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>V-LOOKUP</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>LAPTOP</t>
+  </si>
+  <si>
+    <t>A.C</t>
+  </si>
+  <si>
+    <t>REFRIGARATOR</t>
+  </si>
+  <si>
+    <t>ELECTRONIC</t>
+  </si>
+  <si>
+    <t>X-LOOKUP</t>
+  </si>
+  <si>
+    <t>H-LOOKUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +190,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,8 +226,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,276 +549,1150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A7A391-93F2-4665-8AF8-058BF44CF076}">
-  <dimension ref="B2:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978CDC1B-AA27-4E8C-B874-E12702D4AF99}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <f>SUM(C2:D2)</f>
+        <v>88</v>
+      </c>
+      <c r="G2">
+        <f>COUNT(C2:C11)</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>COUNTA(A1:C12)</f>
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <f>COUNTBLANK(A1:C12)</f>
+        <v>3</v>
+      </c>
+      <c r="J2" t="str">
+        <f>LEFT(B2,3)</f>
+        <v>NIK</v>
+      </c>
+      <c r="K2" t="str">
+        <f>RIGHT(B2,3)</f>
+        <v>ITA</v>
+      </c>
+      <c r="L2">
+        <f>MIN(C1:C11)</f>
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <f>MAX(D1:D11)</f>
+        <v>68</v>
+      </c>
+      <c r="N2" t="str">
+        <f>_xlfn.CONCAT(B2," ",F2)</f>
+        <v>NIKITA 88</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(C2,D2)</f>
+        <v>44</v>
+      </c>
+      <c r="P2" t="b">
+        <f>IF(44,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b" cm="1">
+        <f t="array" ref="Q2">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <f>AND(B2,D2&gt;50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">SUM(C3:D3)</f>
+        <v>73</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="1">LEFT(B3,3)</f>
+        <v>TON</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K11" si="2">RIGHT(B3,3)</f>
+        <v>ONI</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N11" si="3">_xlfn.CONCAT(B3," ",F3)</f>
+        <v>TONI 73</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="4">AVERAGE(C3,D3)</f>
+        <v>36.5</v>
+      </c>
+      <c r="P3" t="b">
+        <f t="shared" ref="P3:P11" si="5">IF(44,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b" cm="1">
+        <f t="array" ref="Q3">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <f>AND(B3,D3&gt;50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>AAC</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>HAL</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v>AACHAL 83</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>41.5</v>
+      </c>
+      <c r="P4" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b" cm="1">
+        <f t="array" ref="Q4">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <f>AND(B4,D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>SAU</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>ABH</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>SAURABH 85</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>42.5</v>
+      </c>
+      <c r="P5" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b" cm="1">
+        <f t="array" ref="Q5">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" ref="R5:R11" si="6">AND(B5,D5&gt;50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>SHU</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>HAM</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>SHUBHAM 91</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>45.5</v>
+      </c>
+      <c r="P6" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b" cm="1">
+        <f t="array" ref="Q6">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>GAU</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>RAV</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>GAURAV 84</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="P7" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b" cm="1">
+        <f t="array" ref="Q7">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>AAD</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>TYA</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>AADITYA 96</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="P8" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b" cm="1">
+        <f t="array" ref="Q8">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>TEJ</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>JAS</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>TEJAS 82</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="P9" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b" cm="1">
+        <f t="array" ref="Q9">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>GAN</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>ESH</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>GANESH 89</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>44.5</v>
+      </c>
+      <c r="P10" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b" cm="1">
+        <f t="array" ref="Q10">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>MAN</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>SHA</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>MANISHA 89</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>44.5</v>
+      </c>
+      <c r="P11" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b" cm="1">
+        <f t="array" ref="Q11">_xlfn.IFS(44,TRUE,56,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCCD587-1E77-4824-9AEB-7D44FC335AE4}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:C2)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">SUM(B3:C3)</f>
+        <v>73</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5">
+        <f>VLOOKUP(A4,A1:E9,5,0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6">
+        <f>VLOOKUP(A2,A1:E9,5,0)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10">
+        <f>HLOOKUP(E1,A1:E9,9,0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11">
+        <f>HLOOKUP(E1,A1:E9,7,0)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4">
+        <v>65000</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17">
+        <f>_xlfn.XLOOKUP(A17,A16:A19,C16:C19)</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18">
+        <f>_xlfn.XLOOKUP(A19,A16:A19,C16:C19)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEF916F-31C6-447A-9033-880854D13CAE}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>1</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <f>SUM(C2:D2)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">SUM(C3:D3)</f>
+        <v>73</v>
+      </c>
+      <c r="H3" t="e">
+        <f>AVERAGEIF(C2:C11,B7,B2:B11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>11113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7">
-        <f>SUM(O3:O6)</f>
-        <v>12253</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <f>45+45</f>
-        <v>90</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <f>SUM(O3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>10</v>
-      </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <f>AVERAGE(M9:M10)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K2:M6 O3:O6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>